--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sdc2-Ptprj.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sdc2-Ptprj.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.057109</v>
+        <v>1.819857</v>
       </c>
       <c r="H2">
-        <v>9.171327</v>
+        <v>5.459571</v>
       </c>
       <c r="I2">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="J2">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.815493333333333</v>
+        <v>1.758668</v>
       </c>
       <c r="N2">
-        <v>5.446479999999999</v>
+        <v>5.276004</v>
       </c>
       <c r="O2">
-        <v>0.02449420924905277</v>
+        <v>0.02465283256602696</v>
       </c>
       <c r="P2">
-        <v>0.02449420924905277</v>
+        <v>0.02465283256602696</v>
       </c>
       <c r="Q2">
-        <v>5.550161008773333</v>
+        <v>3.200524270476</v>
       </c>
       <c r="R2">
-        <v>49.95144907896</v>
+        <v>28.80471843428401</v>
       </c>
       <c r="S2">
-        <v>0.0006601073311295458</v>
+        <v>0.0003661728271249432</v>
       </c>
       <c r="T2">
-        <v>0.0006601073311295457</v>
+        <v>0.0003661728271249433</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.057109</v>
+        <v>1.819857</v>
       </c>
       <c r="H3">
-        <v>9.171327</v>
+        <v>5.459571</v>
       </c>
       <c r="I3">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="J3">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>17.052059</v>
       </c>
       <c r="O3">
-        <v>0.07668745708663094</v>
+        <v>0.0796780206066965</v>
       </c>
       <c r="P3">
-        <v>0.07668745708663093</v>
+        <v>0.0796780206066965</v>
       </c>
       <c r="Q3">
-        <v>17.37666767914367</v>
+        <v>10.344102978521</v>
       </c>
       <c r="R3">
-        <v>156.390009112293</v>
+        <v>93.09692680668901</v>
       </c>
       <c r="S3">
-        <v>0.00206669062527606</v>
+        <v>0.001183471553913024</v>
       </c>
       <c r="T3">
-        <v>0.002066690625276059</v>
+        <v>0.001183471553913025</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.057109</v>
+        <v>1.819857</v>
       </c>
       <c r="H4">
-        <v>9.171327</v>
+        <v>5.459571</v>
       </c>
       <c r="I4">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="J4">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.243698</v>
+        <v>3.568404</v>
       </c>
       <c r="N4">
-        <v>15.731094</v>
+        <v>10.705212</v>
       </c>
       <c r="O4">
-        <v>0.07074674067517345</v>
+        <v>0.05002153126112539</v>
       </c>
       <c r="P4">
-        <v>0.07074674067517343</v>
+        <v>0.05002153126112539</v>
       </c>
       <c r="Q4">
-        <v>16.030556349082</v>
+        <v>6.493984998228</v>
       </c>
       <c r="R4">
-        <v>144.275007141738</v>
+        <v>58.445864984052</v>
       </c>
       <c r="S4">
-        <v>0.001906591133372015</v>
+        <v>0.0007429785388737134</v>
       </c>
       <c r="T4">
-        <v>0.001906591133372015</v>
+        <v>0.0007429785388737136</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.057109</v>
+        <v>1.819857</v>
       </c>
       <c r="H5">
-        <v>9.171327</v>
+        <v>5.459571</v>
       </c>
       <c r="I5">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="J5">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>61.37607633333332</v>
+        <v>60.32626866666666</v>
       </c>
       <c r="N5">
-        <v>184.128229</v>
+        <v>180.978806</v>
       </c>
       <c r="O5">
-        <v>0.8280715929891429</v>
+        <v>0.8456476155661511</v>
       </c>
       <c r="P5">
-        <v>0.8280715929891428</v>
+        <v>0.8456476155661511</v>
       </c>
       <c r="Q5">
-        <v>187.6333553433203</v>
+        <v>109.785182316914</v>
       </c>
       <c r="R5">
-        <v>1688.700198089883</v>
+        <v>988.066640852226</v>
       </c>
       <c r="S5">
-        <v>0.02231613699688603</v>
+        <v>0.01256055170593438</v>
       </c>
       <c r="T5">
-        <v>0.02231613699688603</v>
+        <v>0.01256055170593439</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>267.08268</v>
       </c>
       <c r="I6">
-        <v>0.7848102735793893</v>
+        <v>0.726618572334523</v>
       </c>
       <c r="J6">
-        <v>0.7848102735793893</v>
+        <v>0.7266185723345231</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.815493333333333</v>
+        <v>1.758668</v>
       </c>
       <c r="N6">
-        <v>5.446479999999999</v>
+        <v>5.276004</v>
       </c>
       <c r="O6">
-        <v>0.02449420924905277</v>
+        <v>0.02465283256602696</v>
       </c>
       <c r="P6">
-        <v>0.02449420924905277</v>
+        <v>0.02465283256602696</v>
       </c>
       <c r="Q6">
-        <v>161.6289416629333</v>
+        <v>156.56992089008</v>
       </c>
       <c r="R6">
-        <v>1454.6604749664</v>
+        <v>1409.12928801072</v>
       </c>
       <c r="S6">
-        <v>0.01922330706185992</v>
+        <v>0.01791320600312854</v>
       </c>
       <c r="T6">
-        <v>0.01922330706185991</v>
+        <v>0.01791320600312855</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>267.08268</v>
       </c>
       <c r="I7">
-        <v>0.7848102735793893</v>
+        <v>0.726618572334523</v>
       </c>
       <c r="J7">
-        <v>0.7848102735793893</v>
+        <v>0.7266185723345231</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>17.052059</v>
       </c>
       <c r="O7">
-        <v>0.07668745708663094</v>
+        <v>0.0796780206066965</v>
       </c>
       <c r="P7">
-        <v>0.07668745708663093</v>
+        <v>0.0796780206066965</v>
       </c>
       <c r="Q7">
         <v>506.0344019153467</v>
@@ -883,10 +883,10 @@
         <v>4554.309617238119</v>
       </c>
       <c r="S7">
-        <v>0.0601851041762665</v>
+        <v>0.05789552957967851</v>
       </c>
       <c r="T7">
-        <v>0.06018510417626649</v>
+        <v>0.05789552957967852</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>267.08268</v>
       </c>
       <c r="I8">
-        <v>0.7848102735793893</v>
+        <v>0.726618572334523</v>
       </c>
       <c r="J8">
-        <v>0.7848102735793893</v>
+        <v>0.7266185723345231</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.243698</v>
+        <v>3.568404</v>
       </c>
       <c r="N8">
-        <v>15.731094</v>
+        <v>10.705212</v>
       </c>
       <c r="O8">
-        <v>0.07074674067517345</v>
+        <v>0.05002153126112539</v>
       </c>
       <c r="P8">
-        <v>0.07074674067517343</v>
+        <v>0.05002153126112539</v>
       </c>
       <c r="Q8">
-        <v>466.83363831688</v>
+        <v>317.68630121424</v>
       </c>
       <c r="R8">
-        <v>4201.502744851919</v>
+        <v>2859.17671092816</v>
       </c>
       <c r="S8">
-        <v>0.05552276890413298</v>
+        <v>0.03634657363094564</v>
       </c>
       <c r="T8">
-        <v>0.05552276890413297</v>
+        <v>0.03634657363094565</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>267.08268</v>
       </c>
       <c r="I9">
-        <v>0.7848102735793893</v>
+        <v>0.726618572334523</v>
       </c>
       <c r="J9">
-        <v>0.7848102735793893</v>
+        <v>0.7266185723345231</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>61.37607633333332</v>
+        <v>60.32626866666666</v>
       </c>
       <c r="N9">
-        <v>184.128229</v>
+        <v>180.978806</v>
       </c>
       <c r="O9">
-        <v>0.8280715929891429</v>
+        <v>0.8456476155661511</v>
       </c>
       <c r="P9">
-        <v>0.8280715929891428</v>
+        <v>0.8456476155661511</v>
       </c>
       <c r="Q9">
-        <v>5464.162318330412</v>
+        <v>5370.700503297786</v>
       </c>
       <c r="R9">
-        <v>49177.46086497371</v>
+        <v>48336.30452968008</v>
       </c>
       <c r="S9">
-        <v>0.6498790934371299</v>
+        <v>0.6144632631207703</v>
       </c>
       <c r="T9">
-        <v>0.6498790934371298</v>
+        <v>0.6144632631207704</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>21.16964733333333</v>
+        <v>31.52924033333333</v>
       </c>
       <c r="H10">
-        <v>63.508942</v>
+        <v>94.58772099999999</v>
       </c>
       <c r="I10">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="J10">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.815493333333333</v>
+        <v>1.758668</v>
       </c>
       <c r="N10">
-        <v>5.446479999999999</v>
+        <v>5.276004</v>
       </c>
       <c r="O10">
-        <v>0.02449420924905277</v>
+        <v>0.02465283256602696</v>
       </c>
       <c r="P10">
-        <v>0.02449420924905277</v>
+        <v>0.02465283256602696</v>
       </c>
       <c r="Q10">
-        <v>38.43335360268444</v>
+        <v>55.44946603854267</v>
       </c>
       <c r="R10">
-        <v>345.9001824241599</v>
+        <v>499.045194346884</v>
       </c>
       <c r="S10">
-        <v>0.004571063512017521</v>
+        <v>0.006343988055082599</v>
       </c>
       <c r="T10">
-        <v>0.004571063512017521</v>
+        <v>0.0063439880550826</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>21.16964733333333</v>
+        <v>31.52924033333333</v>
       </c>
       <c r="H11">
-        <v>63.508942</v>
+        <v>94.58772099999999</v>
       </c>
       <c r="I11">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="J11">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>17.052059</v>
       </c>
       <c r="O11">
-        <v>0.07668745708663094</v>
+        <v>0.0796780206066965</v>
       </c>
       <c r="P11">
-        <v>0.07668745708663093</v>
+        <v>0.0796780206066965</v>
       </c>
       <c r="Q11">
-        <v>120.3286917790642</v>
+        <v>179.2128221297265</v>
       </c>
       <c r="R11">
-        <v>1082.958226011578</v>
+        <v>1612.915399167539</v>
       </c>
       <c r="S11">
-        <v>0.0143112697925394</v>
+        <v>0.02050378631452207</v>
       </c>
       <c r="T11">
-        <v>0.0143112697925394</v>
+        <v>0.02050378631452207</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>21.16964733333333</v>
+        <v>31.52924033333333</v>
       </c>
       <c r="H12">
-        <v>63.508942</v>
+        <v>94.58772099999999</v>
       </c>
       <c r="I12">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="J12">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.243698</v>
+        <v>3.568404</v>
       </c>
       <c r="N12">
-        <v>15.731094</v>
+        <v>10.705212</v>
       </c>
       <c r="O12">
-        <v>0.07074674067517345</v>
+        <v>0.05002153126112539</v>
       </c>
       <c r="P12">
-        <v>0.07074674067517343</v>
+        <v>0.05002153126112539</v>
       </c>
       <c r="Q12">
-        <v>111.0072373825053</v>
+        <v>112.509067322428</v>
       </c>
       <c r="R12">
-        <v>999.065136442548</v>
+        <v>1012.581605901852</v>
       </c>
       <c r="S12">
-        <v>0.01320262440833672</v>
+        <v>0.01287219210886248</v>
       </c>
       <c r="T12">
-        <v>0.01320262440833671</v>
+        <v>0.01287219210886248</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>21.16964733333333</v>
+        <v>31.52924033333333</v>
       </c>
       <c r="H13">
-        <v>63.508942</v>
+        <v>94.58772099999999</v>
       </c>
       <c r="I13">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="J13">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>61.37607633333332</v>
+        <v>60.32626866666666</v>
       </c>
       <c r="N13">
-        <v>184.128229</v>
+        <v>180.978806</v>
       </c>
       <c r="O13">
-        <v>0.8280715929891429</v>
+        <v>0.8456476155661511</v>
       </c>
       <c r="P13">
-        <v>0.8280715929891428</v>
+        <v>0.8456476155661511</v>
       </c>
       <c r="Q13">
-        <v>1299.309890680413</v>
+        <v>1902.041423204569</v>
       </c>
       <c r="R13">
-        <v>11693.78901612372</v>
+        <v>17118.37280884112</v>
       </c>
       <c r="S13">
-        <v>0.1545331717208741</v>
+        <v>0.2176130616063049</v>
       </c>
       <c r="T13">
-        <v>0.1545331717208741</v>
+        <v>0.2176130616063049</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.184005</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="H14">
-        <v>0.5520149999999999</v>
+        <v>0.439328</v>
       </c>
       <c r="I14">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="J14">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.815493333333333</v>
+        <v>1.758668</v>
       </c>
       <c r="N14">
-        <v>5.446479999999999</v>
+        <v>5.276004</v>
       </c>
       <c r="O14">
-        <v>0.02449420924905277</v>
+        <v>0.02465283256602696</v>
       </c>
       <c r="P14">
-        <v>0.02449420924905277</v>
+        <v>0.02465283256602696</v>
       </c>
       <c r="Q14">
-        <v>0.3340598507999999</v>
+        <v>0.2575440317013333</v>
       </c>
       <c r="R14">
-        <v>3.006538657199999</v>
+        <v>2.317896285312</v>
       </c>
       <c r="S14">
-        <v>3.973134404579361E-05</v>
+        <v>2.946568069087243E-05</v>
       </c>
       <c r="T14">
-        <v>3.97313440457936E-05</v>
+        <v>2.946568069087243E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.184005</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="H15">
-        <v>0.5520149999999999</v>
+        <v>0.439328</v>
       </c>
       <c r="I15">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="J15">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>17.052059</v>
       </c>
       <c r="O15">
-        <v>0.07668745708663094</v>
+        <v>0.0796780206066965</v>
       </c>
       <c r="P15">
-        <v>0.07668745708663093</v>
+        <v>0.0796780206066965</v>
       </c>
       <c r="Q15">
-        <v>1.045888038765</v>
+        <v>0.8323829973724445</v>
       </c>
       <c r="R15">
-        <v>9.412992348884998</v>
+        <v>7.491446976352</v>
       </c>
       <c r="S15">
-        <v>0.0001243924925489805</v>
+        <v>9.523315858288154E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001243924925489805</v>
+        <v>9.523315858288157E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.184005</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="H16">
-        <v>0.5520149999999999</v>
+        <v>0.439328</v>
       </c>
       <c r="I16">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="J16">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.243698</v>
+        <v>3.568404</v>
       </c>
       <c r="N16">
-        <v>15.731094</v>
+        <v>10.705212</v>
       </c>
       <c r="O16">
-        <v>0.07074674067517345</v>
+        <v>0.05002153126112539</v>
       </c>
       <c r="P16">
-        <v>0.07074674067517343</v>
+        <v>0.05002153126112539</v>
       </c>
       <c r="Q16">
-        <v>0.9648666504899999</v>
+        <v>0.5225665975039999</v>
       </c>
       <c r="R16">
-        <v>8.683799854409999</v>
+        <v>4.703099377536</v>
       </c>
       <c r="S16">
-        <v>0.0001147562293317372</v>
+        <v>5.978698244354927E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001147562293317371</v>
+        <v>5.978698244354929E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.184005</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="H17">
-        <v>0.5520149999999999</v>
+        <v>0.439328</v>
       </c>
       <c r="I17">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="J17">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>61.37607633333332</v>
+        <v>60.32626866666666</v>
       </c>
       <c r="N17">
-        <v>184.128229</v>
+        <v>180.978806</v>
       </c>
       <c r="O17">
-        <v>0.8280715929891429</v>
+        <v>0.8456476155661511</v>
       </c>
       <c r="P17">
-        <v>0.8280715929891428</v>
+        <v>0.8456476155661511</v>
       </c>
       <c r="Q17">
-        <v>11.293504925715</v>
+        <v>8.834339653596444</v>
       </c>
       <c r="R17">
-        <v>101.641544331435</v>
+        <v>79.509056882368</v>
       </c>
       <c r="S17">
-        <v>0.001343190834252889</v>
+        <v>0.001010739133141549</v>
       </c>
       <c r="T17">
-        <v>0.001343190834252888</v>
+        <v>0.001010739133141549</v>
       </c>
     </row>
   </sheetData>
